--- a/NMA/blood/Binary outcomes_non severe_long data for analysis_20210715.xlsx
+++ b/NMA/blood/Binary outcomes_non severe_long data for analysis_20210715.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Assem Khamis\Dropbox\McMaster\COVID Rx\Blood products\20210712\Severity\Binary outcomes\Non severe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23E6732-D054-426C-AF3E-21CCFCABE766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26124A02-BEF0-4D94-BA94-2829A4372EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="345" windowWidth="18405" windowHeight="11850" xr2:uid="{F905B205-7D7C-4478-AF64-B84B78E9AB80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F905B205-7D7C-4478-AF64-B84B78E9AB80}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary outcomes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="154" r:id="rId2"/>
-    <pivotCache cacheId="155" r:id="rId3"/>
-    <pivotCache cacheId="156" r:id="rId4"/>
-    <pivotCache cacheId="157" r:id="rId5"/>
-    <pivotCache cacheId="160" r:id="rId6"/>
-    <pivotCache cacheId="165" r:id="rId7"/>
+    <pivotCache cacheId="14" r:id="rId2"/>
+    <pivotCache cacheId="15" r:id="rId3"/>
+    <pivotCache cacheId="16" r:id="rId4"/>
+    <pivotCache cacheId="17" r:id="rId5"/>
+    <pivotCache cacheId="18" r:id="rId6"/>
+    <pivotCache cacheId="19" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="48">
   <si>
     <t>refid</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Mortality - 90 days (n=13, patients= 10683, interventions= 7)</t>
+  </si>
+  <si>
+    <t>O'Brien_1</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -243,32 +246,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1340,7 +1354,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{123CE4E1-A0E3-4DDC-957D-601E9A4D2E72}" name="PivotTable3" cacheId="160" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{123CE4E1-A0E3-4DDC-957D-601E9A4D2E72}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AA2:AC9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1413,7 +1427,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED62DEAC-3A3F-4D4D-BD75-76662CA6D36E}" name="PivotTable26" cacheId="154" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED62DEAC-3A3F-4D4D-BD75-76662CA6D36E}" name="PivotTable26" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="Q2:S8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1482,7 +1496,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4AFDDC58-0625-4CCD-9E42-D96CDC2186EA}" name="PivotTable25" cacheId="165" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4AFDDC58-0625-4CCD-9E42-D96CDC2186EA}" name="PivotTable25" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G2:I10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1559,7 +1573,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9C49E59-A5CB-4587-A549-1DDF9BE252DB}" name="PivotTable29" cacheId="157" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9C49E59-A5CB-4587-A549-1DDF9BE252DB}" name="PivotTable29" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="BF2:BH9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1632,7 +1646,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0348DDFE-2234-4115-AFA2-0CED887E5C66}" name="PivotTable28" cacheId="156" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0348DDFE-2234-4115-AFA2-0CED887E5C66}" name="PivotTable28" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AU2:AW8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -1701,7 +1715,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5181B1FA-8044-4534-BFA8-EEA48FEC882F}" name="PivotTable27" cacheId="155" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5181B1FA-8044-4534-BFA8-EEA48FEC882F}" name="PivotTable27" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AK2:AM6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2058,90 +2072,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6620818-3E48-4D4D-B6B9-16BF0B6D5C72}">
-  <dimension ref="A1:BH28"/>
+  <dimension ref="A1:BH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E28"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" customWidth="1"/>
-    <col min="23" max="23" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.54296875" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" customWidth="1"/>
+    <col min="23" max="23" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" customWidth="1"/>
-    <col min="29" max="29" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.26953125" customWidth="1"/>
+    <col min="29" max="29" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="32" max="32" width="13.140625" customWidth="1"/>
+    <col min="32" max="32" width="13.1796875" customWidth="1"/>
     <col min="33" max="33" width="21" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.28515625" customWidth="1"/>
-    <col min="38" max="38" width="8.42578125" customWidth="1"/>
-    <col min="39" max="39" width="8.85546875" customWidth="1"/>
+    <col min="35" max="35" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.26953125" customWidth="1"/>
+    <col min="38" max="38" width="8.453125" customWidth="1"/>
+    <col min="39" max="39" width="8.81640625" customWidth="1"/>
     <col min="43" max="43" width="21" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" customWidth="1"/>
-    <col min="48" max="48" width="10.140625" customWidth="1"/>
+    <col min="47" max="47" width="13.7265625" customWidth="1"/>
+    <col min="48" max="48" width="10.1796875" customWidth="1"/>
     <col min="49" max="49" width="11" customWidth="1"/>
-    <col min="58" max="58" width="20.7109375" customWidth="1"/>
-    <col min="59" max="59" width="13.42578125" customWidth="1"/>
-    <col min="60" max="60" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.7265625" customWidth="1"/>
+    <col min="59" max="59" width="13.453125" customWidth="1"/>
+    <col min="60" max="60" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="U1" s="5" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="U1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="AE1" s="5" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="AE1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AO1" s="5" t="s">
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AO1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AZ1" s="5" t="s">
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AZ1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2433,7 +2447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2579,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2725,7 +2739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2871,7 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3008,7 +3022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3145,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3264,7 +3278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3365,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3457,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3534,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3596,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3658,7 +3672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3720,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3767,7 +3781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3799,7 +3813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3821,7 +3835,7 @@
       <c r="V18" t="s">
         <v>44</v>
       </c>
-      <c r="W18" s="6" t="s">
+      <c r="W18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="X18">
@@ -3831,7 +3845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3847,8 +3861,23 @@
       <c r="E19">
         <v>1</v>
       </c>
+      <c r="U19">
+        <v>47809</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W19" t="s">
+        <v>25</v>
+      </c>
+      <c r="X19">
+        <v>155</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3865,8 +3894,23 @@
         <v>3</v>
       </c>
       <c r="H20" s="4"/>
+      <c r="U20">
+        <v>47809</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W20" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20">
+        <v>156</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3884,7 +3928,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -3902,7 +3946,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3920,7 +3964,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3938,7 +3982,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3956,7 +4000,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3974,7 +4018,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -3992,14 +4036,14 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D28">
@@ -4009,6 +4053,40 @@
         <v>10</v>
       </c>
       <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>47809</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>155</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>47809</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>156</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4020,61 +4098,81 @@
     <mergeCell ref="U1:Y1"/>
   </mergeCells>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="20" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="19" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2">
-    <cfRule type="duplicateValues" dxfId="18" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2">
-    <cfRule type="duplicateValues" dxfId="17" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA2">
-    <cfRule type="duplicateValues" dxfId="16" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B9 B11:B13 B15:B26">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B26">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L16 L3:L8">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L16">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AF12">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP3:AP11">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA16:BA17">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA15 BA9:BA13 BA3:BA7">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA3:BA15">
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V18">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
+  <conditionalFormatting sqref="B27:B28">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V18">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(B29))=0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B28">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B30))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V19">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(V19))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V20">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(V20))=0</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
